--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -122,19 +122,19 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
+  </si>
+  <si>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
-  </si>
-  <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -101,55 +101,55 @@
     <t>Chefe/Beneficiário Informa o número do credor para o beneficiário; e Confirma a operação.</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que houve um erro inesperado, quando da tentativa de inserção do número do credor; e Exibe mensagem de erro (MSG207 - Não foi possível atualizar o número do credor) para o usuário.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>O caso de uso encerra.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
+  </si>
+  <si>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM Realiza a persistência do número do credor, para o beneficiário indicado, na base do RH; Atualiza a listagem de solicitações aguardando empenho, já com o número do credor recém informado; e Exibe mensagem de sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>O caso de uso encerra.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
-  </si>
-  <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que houve um erro inesperado, quando da tentativa de inserção do número do credor; e Exibe mensagem de erro (MSG207 - Não foi possível atualizar o número do credor) para o usuário.</t>
   </si>
   <si>
     <t>TC7</t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -122,19 +122,19 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
   </si>
   <si>
     <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -101,55 +101,55 @@
     <t>Chefe/Beneficiário Informa o número do credor para o beneficiário; e Confirma a operação.</t>
   </si>
   <si>
+    <t>SYSTEM Realiza a persistência do número do credor, para o beneficiário indicado, na base do RH; Atualiza a listagem de solicitações aguardando empenho, já com o número do credor recém informado; e Exibe mensagem de sucesso.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>O caso de uso encerra.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
+  </si>
+  <si>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que houve um erro inesperado, quando da tentativa de inserção do número do credor; e Exibe mensagem de erro (MSG207 - Não foi possível atualizar o número do credor) para o usuário.</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>O caso de uso encerra.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
-  </si>
-  <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM Realiza a persistência do número do credor, para o beneficiário indicado, na base do RH; Atualiza a listagem de solicitações aguardando empenho, já com o número do credor recém informado; e Exibe mensagem de sucesso.</t>
   </si>
   <si>
     <t>TC7</t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -101,55 +101,55 @@
     <t>Chefe/Beneficiário Informa o número do credor para o beneficiário; e Confirma a operação.</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que houve um erro inesperado, quando da tentativa de inserção do número do credor; e Exibe mensagem de erro (MSG207 - Não foi possível atualizar o número do credor) para o usuário.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>O caso de uso encerra.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
+  </si>
+  <si>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM Realiza a persistência do número do credor, para o beneficiário indicado, na base do RH; Atualiza a listagem de solicitações aguardando empenho, já com o número do credor recém informado; e Exibe mensagem de sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>O caso de uso encerra.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
-  </si>
-  <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que houve um erro inesperado, quando da tentativa de inserção do número do credor; e Exibe mensagem de erro (MSG207 - Não foi possível atualizar o número do credor) para o usuário.</t>
   </si>
   <si>
     <t>TC7</t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -110,7 +110,7 @@
     <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas ordenado pelo numero da diaria em ordem crescente.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
@@ -122,19 +122,19 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe/Beneficiário Clica para atribuir/desatribuir o registro a si mesmo.</t>
   </si>
   <si>
     <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pelo empenho), no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela de listagem de empenhos</t>
+    <t>O usuário devidamente autenticado e na tela de listagem de empenhos.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,7 +92,7 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Chefe/Beneficiário filtra a listagem por registros cujos beneficiários não possuem número do credor</t>
+    <t>Chefe/Beneficiário Filtra a listagem por registros cujos beneficiários não possuem número do credor.</t>
   </si>
   <si>
     <t>SYSTEM Identifica que a partir da listagem, registros cujos beneficiários não possuem número do credor; e  			Habilita a opção (por meio de item de tela) para que o usuário possa informar (individualmente) um número de credor para um beneficiário.</t>
@@ -110,7 +110,7 @@
     <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas ordenado pelo numero da diaria em ordem crescente.</t>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas, de todos os servidores, ordenado pelo número da diária em ordem crescente.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
@@ -125,7 +125,7 @@
     <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho.</t>
   </si>
   <si>
     <t>TC4</t>
@@ -143,7 +143,7 @@
     <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
   </si>
   <si>
-    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC6</t>
